--- a/inventoryreport.xlsx
+++ b/inventoryreport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,39 +436,34 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>pallet_id</t>
+          <t>Pallet ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>creation_date</t>
+          <t>Created Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>receipt_number</t>
+          <t>Receipt Number</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>location_type</t>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STAG001</t>
+          <t>FORGOT-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,893 +473,737 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-14 23:01:48</t>
+          <t>2025-08-18 02:25:22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>REC1001</t>
+          <t>REC001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Standard Product 1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Frozen Vegetables</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STAG002</t>
+          <t>FORGOT-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>RECV-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-14 21:43:48</t>
+          <t>2025-08-17 22:25:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>REC1002</t>
+          <t>REC002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Standard Product 2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Dairy Products</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STAG003</t>
+          <t>FORGOT-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>AISLE-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-14 22:17:48</t>
+          <t>2025-08-18 00:25:22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>REC1003</t>
+          <t>REC003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Standard Product 3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Paper Towels</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STAG004</t>
+          <t>FORGOT-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>AISLE-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-14 22:39:48</t>
+          <t>2025-08-18 03:25:22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>REC1004</t>
+          <t>REC004</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Standard Product 4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Canned Goods</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STAG005</t>
+          <t>LOT-A-001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>01A01A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-14 22:09:48</t>
+          <t>2025-08-18 08:25:22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>REC1005</t>
+          <t>LOT001</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Standard Product 5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Bread Lot A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>LOT-A-002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01A01B</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-08-18 08:25:22</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>LOT001</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-08-15 05:33:48</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>REC2001</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Bread Lot A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOT002</t>
+          <t>LOT-A-003</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>01A02A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 08:25:22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>LOT001</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Bread Lot A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOT003</t>
+          <t>OVER-001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>01A01A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>OVER001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Excess 1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LOT004</t>
+          <t>OVER-002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>01A01A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>OVER002</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Excess 2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LOT005</t>
+          <t>OVER-003</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>01A01A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>OVER003</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Excess 3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LOT006</t>
+          <t>OVER-004</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>01A01A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>OVER004</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Excess 4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LOT007</t>
+          <t>STAGE-001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>STAGE-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>STG001</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Staging Overflow 1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOT008</t>
+          <t>STAGE-002</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>STAGE-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>STG002</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Staging Overflow 2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STG001</t>
+          <t>INVALID-001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>FAKE-LOC-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>INV001</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Invalid Location</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STG002</t>
+          <t>INVALID-002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>NONEXIST-02</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-15 05:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>REC2001</t>
+          <t>INV002</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Product for Lot Test</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Bad Location</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OVER001</t>
+          <t>INVALID-003</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>99Z99Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>REC3001</t>
+          <t>INV003</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Overcapacity Test Product 1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Wrong Code</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OVER002</t>
+          <t>STUCK-001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>AISLE-01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-17 10:25:22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>REC3002</t>
+          <t>STUCK001</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Overcapacity Test Product 2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Been Here Too Long</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OVER003</t>
+          <t>STUCK-002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>AISLE-02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-17 16:25:22</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>REC3003</t>
+          <t>STUCK002</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Overcapacity Test Product 3</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Another Stuck</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OVER004</t>
+          <t>COLD-001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>01A03A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>REC3004</t>
+          <t>COLD001</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Overcapacity Test Product 4</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Ice Cream - Should be FROZEN</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OVER005</t>
+          <t>COLD-002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>01A04A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>REC3005</t>
+          <t>COLD002</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Overcapacity Test Product 5</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Milk - Should be COLD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OVER006</t>
+          <t>COLD-003</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>01A05A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>REC3006</t>
+          <t>COLD003</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Overcapacity Test Product 6</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Frozen Pizza - Should be FROZEN</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OVER007</t>
+          <t>COLD-004</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>01A06A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>REC3007</t>
+          <t>COLD004</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Overcapacity Test Product 7</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Yogurt - Should be COLD</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>INV001</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BADLOC-01</t>
+          <t>01A07A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>REC4001</t>
+          <t>SCAN001</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Invalid Location Test 1</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
+          <t>Missing Pallet ID</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INV002</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>UNKNOWN-X</t>
-        </is>
-      </c>
+          <t>SCAN-002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>REC4002</t>
+          <t>SCAN002</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Invalid Location Test 2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
+          <t>Missing Location</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INV003</t>
+          <t>SCAN-003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MISSING-Z</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:33:48</t>
-        </is>
-      </c>
+          <t>01A08A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>REC4003</t>
+          <t>SCAN003</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Invalid Location Test 3</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
+          <t>Missing Date</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AISLE001</t>
+          <t>SCAN-004</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001A</t>
+          <t>01A09A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-08-15 01:33:48</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>REC5001</t>
-        </is>
-      </c>
+          <t>2025-08-18 09:25:22</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Aisle Stagnant Product 1</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Missing Receipt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AISLE002</t>
+          <t>DUPLICATE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002B</t>
+          <t>01A10A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-08-15 01:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>REC5002</t>
+          <t>SCAN005</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aisle Stagnant Product 2</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>First Entry</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AISLE003</t>
+          <t>DUPLICATE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003C</t>
+          <t>01A10B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-08-15 01:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>REC5003</t>
+          <t>SCAN006</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aisle Stagnant Product 3</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>FINAL</t>
+          <t>Duplicate Entry</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TEMP001</t>
+          <t>MISMATCH-001</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1374,650 +1213,206 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-08-15 06:48:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>REC6001</t>
+          <t>MIS001</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FROZEN CHICKEN BREAST</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>DOCK</t>
+          <t>Heavy Item at Dock - Wrong Zone</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TEMP002</t>
+          <t>MISMATCH-002</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-08-15 06:48:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>REC6002</t>
+          <t>MIS002</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>REFRIGERATED DAIRY MILK</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>STAGING</t>
+          <t>Finished Good in Receiving</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TEMP003</t>
+          <t>MISMATCH-003</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RECV-02</t>
+          <t>STAGE-01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-08-15 06:48:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>REC6003</t>
+          <t>MIS003</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FROZEN VEGETABLES</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Raw Material in Staging</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DUP001</t>
+          <t>GOOD-001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>01A15A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 08:25:22</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>REC7001</t>
+          <t>GOOD001</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Duplicate Scan Test</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>RECEIVING</t>
+          <t>Normal Pallet 1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DUP001</t>
+          <t>GOOD-002</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>01A15B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 08:25:22</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>REC7001</t>
+          <t>GOOD002</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Duplicate Scan Test</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>STAGING</t>
+          <t>Normal Pallet 2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IMP001</t>
+          <t>GOOD-003</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VERYLONGLOCATIONCODEISIMPOSSIBLE123456789</t>
+          <t>02A01A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>REC8001</t>
+          <t>GOOD003</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Impossible Location Test 1</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
+          <t>Normal Pallet 3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IMP002</t>
+          <t>GOOD-004</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LOC@#$%</t>
+          <t>02A02A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 07:25:22</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>REC8002</t>
+          <t>GOOD004</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Impossible Location Test 2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
+          <t>Normal Pallet 4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IMP003</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>GOOD-005</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>02A03A</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-08-15 06:33:48</t>
+          <t>2025-08-18 09:25:22</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>REC8003</t>
+          <t>GOOD005</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Impossible Location Test 3</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MISS001</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:33:48</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>REC9001</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Missing Location Test 1</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MISS002</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:33:48</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>REC9002</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Missing Location Test 2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MISS003</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:33:48</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>REC9003</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Missing Location Test 3</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NORM001</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DOCK-02</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-08-15 07:05:48</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>REC10001</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 1</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>DOCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>NORM002</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DOCK-02</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-08-15 07:17:48</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>REC10002</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>DOCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NORM003</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>STAGE-02</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-08-15 07:16:48</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>REC10003</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 3</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>STAGING</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>NORM004</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>STAGE-02</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:58:48</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>REC10004</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 4</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>STAGING</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>NORM005</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DOCK-01</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2025-08-15 07:00:48</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>REC10005</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 5</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>DOCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>NORM006</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DOCK-02</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:51:48</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>REC10006</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 6</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>DOCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>NORM007</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>STAGE-01</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:26:48</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>REC10007</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 7</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>STAGING</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>NORM008</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DOCK-01</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:39:48</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>REC10008</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 8</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>DOCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>NORM009</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>STAGE-01</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2025-08-15 06:30:48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>REC10009</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 9</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>STAGING</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>NORM010</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DOCK-01</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2025-08-15 07:19:48</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>REC10010</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Normal Operation Product 10</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>DOCK</t>
+          <t>Normal Pallet 5</t>
         </is>
       </c>
     </row>

--- a/inventoryreport.xlsx
+++ b/inventoryreport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Created Date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,14 +456,24 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Creation Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature Requirement</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FORGOT-001</t>
+          <t>OLD001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,946 +483,1318 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-18 02:25:22</t>
+          <t>Frozen Pizza Boxes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>REC001</t>
+          <t>REC2024001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Frozen Vegetables</t>
+          <t>2025-08-18 02:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FOOD</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FROZEN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FORGOT-002</t>
+          <t>OLD002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RECV-02</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-17 22:25:22</t>
+          <t>Dairy Products - Milk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>REC002</t>
+          <t>REC2024001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dairy Products</t>
+          <t>2025-08-18 02:00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FOOD</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>REFRIGERATED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FORGOT-003</t>
+          <t>OLD003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AISLE-01</t>
+          <t>RECV-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-18 00:25:22</t>
+          <t>Canned Goods - Tomatoes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>REC003</t>
+          <t>REC2024001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Paper Towels</t>
+          <t>2025-08-18 02:00:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FOOD</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FORGOT-004</t>
+          <t>STALE001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AISLE-02</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-18 03:25:22</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>REC004</t>
+          <t>REC2024002</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Canned Goods</t>
+          <t>2025-08-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOT-A-001</t>
+          <t>STALE002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01A01A</t>
+          <t>RECV-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-18 08:25:22</t>
+          <t>Cleaning Chemicals</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LOT001</t>
+          <t>REC2024002</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bread Lot A</t>
+          <t>2025-08-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CHEMICAL</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LOT-A-002</t>
+          <t>LOT001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01A01B</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-08-18 08:25:22</t>
+          <t>Electronics - Tablets</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LOT001</t>
+          <t>REC2024003</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bread Lot A</t>
+          <t>2025-08-19 06:00:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTRONICS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOT-A-003</t>
+          <t>LOT002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01A02A</t>
+          <t>001A01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-08-18 08:25:22</t>
+          <t>Electronics - Tablets</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LOT001</t>
+          <t>REC2024003</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bread Lot A</t>
+          <t>2025-08-19 06:00:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ELECTRONICS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OVER-001</t>
+          <t>LOT003</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01A01A</t>
+          <t>001A02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Electronics - Tablets</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OVER001</t>
+          <t>REC2024003</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Excess 1</t>
+          <t>2025-08-19 06:00:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ELECTRONICS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OVER-002</t>
+          <t>LOT004</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01A01A</t>
+          <t>001A03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Electronics - Tablets</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OVER002</t>
+          <t>REC2024003</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Excess 2</t>
+          <t>2025-08-19 06:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ELECTRONICS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OVER-003</t>
+          <t>LOT005</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01A01A</t>
+          <t>001A04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Electronics - Tablets</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OVER003</t>
+          <t>REC2024003</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Excess 3</t>
+          <t>2025-08-19 06:00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ELECTRONICS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OVER-004</t>
+          <t>OVERCAP1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01A01A</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>OVER004</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Excess 4</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STAGE-001</t>
+          <t>OVERCAP2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>STG001</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Staging Overflow 1</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STAGE-002</t>
+          <t>OVERCAP3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>STG002</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Staging Overflow 2</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INVALID-001</t>
+          <t>OVERCAP4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FAKE-LOC-01</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INV001</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Invalid Location</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INVALID-002</t>
+          <t>OVERCAP5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NONEXIST-02</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INV002</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bad Location</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INVALID-003</t>
+          <t>OVERCAP6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>99Z99Z</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INV003</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wrong Code</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STUCK-001</t>
+          <t>OVERCAP7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AISLE-01</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-08-17 10:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>STUCK001</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Been Here Too Long</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STUCK-002</t>
+          <t>OVERCAP8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AISLE-02</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-08-17 16:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>STUCK002</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Another Stuck</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>COLD-001</t>
+          <t>OVERCAP9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01A03A</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COLD001</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ice Cream - Should be FROZEN</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COLD-002</t>
+          <t>OVERCAP10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01A04A</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COLD002</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Milk - Should be COLD</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>COLD-003</t>
+          <t>OVERCAP11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01A05A</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Paper Products</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COLD003</t>
+          <t>REC2024004</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Frozen Pizza - Should be FROZEN</t>
+          <t>2025-08-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COLD-004</t>
+          <t>INVALID1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01A06A</t>
+          <t>BADLOC001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Invalid Location Product</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COLD004</t>
+          <t>REC2024005</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Yogurt - Should be COLD</t>
+          <t>2025-08-19 11:00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>INVALID2</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01A07A</t>
+          <t>ZONE-999</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Non-existent Zone</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SCAN001</t>
+          <t>REC2024005</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Missing Pallet ID</t>
+          <t>2025-08-19 11:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SCAN-002</t>
+          <t>INVALID3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Missing Location Product</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SCAN002</t>
+          <t>REC2024005</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Missing Location</t>
+          <t>2025-08-19 11:00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SCAN-003</t>
+          <t>AISLE1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01A08A</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>AISLE-01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Stuck in Aisle Product</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SCAN003</t>
+          <t>REC2024006</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Missing Date</t>
+          <t>2025-08-18 09:00:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SCAN-004</t>
+          <t>AISLE2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01A09A</t>
+          <t>AISLE-02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Another Stuck Product</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>REC2024006</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Missing Receipt</t>
+          <t>2025-08-18 09:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DUPLICATE</t>
+          <t>TEMP1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01A10A</t>
+          <t>001A10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Frozen Ice Cream</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SCAN005</t>
+          <t>REC2024007</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>First Entry</t>
+          <t>2025-08-19 12:00:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>FOOD</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FROZEN</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DUPLICATE</t>
+          <t>TEMP2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01A10B</t>
+          <t>001A11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Refrigerated Meat</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SCAN006</t>
+          <t>REC2024007</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Duplicate Entry</t>
+          <t>2025-08-19 12:00:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>FOOD</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>REFRIGERATED</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MISMATCH-001</t>
+          <t>TEMP3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
+          <t>AISLE-01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Frozen Vegetables</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MIS001</t>
+          <t>REC2024007</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Heavy Item at Dock - Wrong Zone</t>
+          <t>2025-08-19 12:00:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>FOOD</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FROZEN</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MISMATCH-002</t>
+          <t>DUP001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>001A20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Duplicate Scan Test</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MIS002</t>
+          <t>REC2024008</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Finished Good in Receiving</t>
+          <t>2025-08-19 13:00:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MISMATCH-003</t>
+          <t>DUP001</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>001A21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Duplicate Scan Test</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MIS003</t>
+          <t>REC2024008</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Raw Material in Staging</t>
+          <t>2025-08-19 13:00:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GOOD-001</t>
+          <t>BADCHAR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01A15A</t>
+          <t>LOC@#$%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-08-18 08:25:22</t>
+          <t>Invalid Character Location</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GOOD001</t>
+          <t>REC2024009</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Normal Pallet 1</t>
+          <t>2025-08-19 14:00:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GOOD-002</t>
+          <t>TOOLONG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01A15B</t>
+          <t>VERYLONGLOCATIONCODETHATEXCEEDSLIMITS123456</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-08-18 08:25:22</t>
+          <t>Location Too Long</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GOOD002</t>
+          <t>REC2024009</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Normal Pallet 2</t>
+          <t>2025-08-19 14:00:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GOOD-003</t>
+          <t>NORMAL1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>02A01A</t>
+          <t>001A30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Normal Product 1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GOOD003</t>
+          <t>REC2024010</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Normal Pallet 3</t>
+          <t>2025-08-19 15:00:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GOOD-004</t>
+          <t>NORMAL2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>02A02A</t>
+          <t>001B30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-08-18 07:25:22</t>
+          <t>Normal Product 2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GOOD004</t>
+          <t>REC2024010</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Normal Pallet 4</t>
+          <t>2025-08-19 15:00:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GOOD-005</t>
+          <t>NORMAL3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>02A03A</t>
+          <t>001C30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-08-18 09:25:22</t>
+          <t>Normal Product 3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GOOD005</t>
+          <t>REC2024010</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Normal Pallet 5</t>
+          <t>2025-08-19 15:00:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>AMBIENT</t>
         </is>
       </c>
     </row>
